--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_8_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_8_sine_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.68000000000011</v>
+        <v>22.29000000000005</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.595864047368928e-16</v>
+        <v>3.552713678800501e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>39.79772837686611</v>
+        <v>43.01513842317185</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[29.851240006109755, 49.74421674762247]</t>
+          <t>[32.88363982642909, 53.14663701991461]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.172040739078511e-14</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="N2" t="n">
-        <v>7.926992395823618e-14</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.956026657190042</v>
+        <v>1.276763380738195</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.7044476659115801, 2.207605648468503]</t>
+          <t>[1.0126054398958093, 1.54092132158058]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>56.58000926042584</v>
+        <v>62.27009092323544</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.07369189079976, 62.08632663005192]</t>
+          <t>[56.478162058375986, 68.06201978809489]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>15.61945945945953</v>
+        <v>17.76060060060064</v>
       </c>
       <c r="X2" t="n">
-        <v>14.71135135135142</v>
+        <v>16.82348348348352</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.52756756756764</v>
+        <v>18.69771771771775</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.37000000000006</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +661,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.595864047368928e-16</v>
+        <v>3.552713678800501e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>35.49485275171831</v>
+        <v>38.81316328328045</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[26.500024349296794, 44.48968115413983]</t>
+          <t>[30.919812235304107, 46.706514331256784]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7.926992395823618e-14</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7.926992395823618e-14</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.163552834662886</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.8868159442565782, 1.440289725069193]</t>
+          <t>[1.2641844311742707, 1.7170266154755032]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.28831979012381</v>
+        <v>58.47733435733272</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[55.30225766062645, 65.27438191962118]</t>
+          <t>[53.43085402857188, 63.523814686093566]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.22740740740745</v>
+        <v>17.18504504504511</v>
       </c>
       <c r="X3" t="n">
-        <v>17.24214214214219</v>
+        <v>16.37315315315321</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.21267267267272</v>
+        <v>17.996936936937</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_8_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_8_sine_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.29000000000005</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.552713678800501e-16</v>
+        <v>3.828355257328126e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>43.01513842317185</v>
+        <v>38.68989279014074</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[32.88363982642909, 53.14663701991461]</t>
+          <t>[30.04223500204501, 47.33755057823647]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.276763380738195</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.0126054398958093, 1.54092132158058]</t>
+          <t>[1.364816027685655, 1.8679740102425795]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>62.27009092323544</v>
+        <v>60.67443298023797</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[56.478162058375986, 68.06201978809489]</t>
+          <t>[55.03748296751844, 66.3113829929575]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.76060060060064</v>
+        <v>16.68200200200206</v>
       </c>
       <c r="X2" t="n">
-        <v>16.82348348348352</v>
+        <v>15.78270270270276</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.69771771771775</v>
+        <v>17.58130130130136</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.53000000000008</v>
+        <v>22.32000000000005</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.552713678800501e-16</v>
+        <v>3.828355257328126e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>38.81316328328045</v>
+        <v>43.51294565912779</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[30.919812235304107, 46.706514331256784]</t>
+          <t>[34.094816141325175, 52.9310751769304]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.490605523324887</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.2641844311742707, 1.7170266154755032]</t>
+          <t>[0.8616580451287321, 1.2893423303021168]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>58.47733435733272</v>
+        <v>58.87720902083731</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.43085402857188, 63.523814686093566]</t>
+          <t>[53.840891862176235, 63.913526179498376]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.18504504504511</v>
+        <v>18.4994594594595</v>
       </c>
       <c r="X3" t="n">
-        <v>16.37315315315321</v>
+        <v>17.73981981981986</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.996936936937</v>
+        <v>19.25909909909914</v>
       </c>
     </row>
   </sheetData>
